--- a/notes/Comparison of databases.xlsx
+++ b/notes/Comparison of databases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/258bafff9e3db99a/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\trace-new\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_F25DC773A252ABDACC1048E0411C54CC5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC10FD38-FE09-42E8-818F-70F26D2309FB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3887E6-51DA-4575-8FE3-7C76C4B803B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32985" yWindow="1200" windowWidth="21600" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Comparison report of asyncpg, psycopg async, psycopg sync, psycopg2</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Asyncpg appears to be best</t>
+  </si>
+  <si>
+    <t>But with static IP, psycopg2 appeared fastest</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +508,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
